--- a/docs/trends-paper/wave-counts/us-wave-counts/us_waves_summary.xlsx
+++ b/docs/trends-paper/wave-counts/us-wave-counts/us_waves_summary.xlsx
@@ -372,7 +372,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>first wave</t>
+          <t>First Wave</t>
         </is>
       </c>
       <c r="B2">
@@ -382,7 +382,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>second wave (mizzou umbrella count)</t>
+          <t>Second Wave (Mizzou umbrella)</t>
         </is>
       </c>
       <c r="B3">
@@ -392,7 +392,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>third wave (trump AND immigration count)</t>
+          <t>Third Wave (trump AND immigration count)</t>
         </is>
       </c>
       <c r="B4">

--- a/docs/trends-paper/wave-counts/us-wave-counts/us_waves_summary.xlsx
+++ b/docs/trends-paper/wave-counts/us-wave-counts/us_waves_summary.xlsx
@@ -396,7 +396,7 @@
         </is>
       </c>
       <c r="B4">
-        <v>259</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>

--- a/docs/trends-paper/wave-counts/us-wave-counts/us_waves_summary.xlsx
+++ b/docs/trends-paper/wave-counts/us-wave-counts/us_waves_summary.xlsx
@@ -386,7 +386,7 @@
         </is>
       </c>
       <c r="B3">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4">
